--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.370833</v>
+        <v>1.328826</v>
       </c>
       <c r="H2">
-        <v>13.112499</v>
+        <v>3.986478</v>
       </c>
       <c r="I2">
-        <v>0.0996525630698175</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="J2">
-        <v>0.09965256306981748</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.716522666666667</v>
+        <v>4.019613333333333</v>
       </c>
       <c r="N2">
-        <v>14.149568</v>
+        <v>12.05884</v>
       </c>
       <c r="O2">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="P2">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="Q2">
-        <v>20.61513291671467</v>
+        <v>5.34136670728</v>
       </c>
       <c r="R2">
-        <v>185.536196250432</v>
+        <v>48.07230036551999</v>
       </c>
       <c r="S2">
-        <v>0.05283694213081755</v>
+        <v>0.01420895420087014</v>
       </c>
       <c r="T2">
-        <v>0.05283694213081754</v>
+        <v>0.01420895420087014</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.370833</v>
+        <v>1.328826</v>
       </c>
       <c r="H3">
-        <v>13.112499</v>
+        <v>3.986478</v>
       </c>
       <c r="I3">
-        <v>0.0996525630698175</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="J3">
-        <v>0.09965256306981748</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.709422</v>
       </c>
       <c r="O3">
-        <v>0.02658340904223816</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="P3">
-        <v>0.02658340904223817</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="Q3">
-        <v>1.033588362842</v>
+        <v>0.314232799524</v>
       </c>
       <c r="R3">
-        <v>9.302295265578</v>
+        <v>2.828095195716</v>
       </c>
       <c r="S3">
-        <v>0.002649104846192395</v>
+        <v>0.0008359132973892763</v>
       </c>
       <c r="T3">
-        <v>0.002649104846192395</v>
+        <v>0.0008359132973892763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.370833</v>
+        <v>1.328826</v>
       </c>
       <c r="H4">
-        <v>13.112499</v>
+        <v>3.986478</v>
       </c>
       <c r="I4">
-        <v>0.0996525630698175</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="J4">
-        <v>0.09965256306981748</v>
+        <v>0.03246115949735631</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.942551666666667</v>
+        <v>4.926946666666667</v>
       </c>
       <c r="N4">
-        <v>11.827655</v>
+        <v>14.78084</v>
       </c>
       <c r="O4">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="P4">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="Q4">
-        <v>17.23223492887167</v>
+        <v>6.547054831280001</v>
       </c>
       <c r="R4">
-        <v>155.090114359845</v>
+        <v>58.92349348152</v>
       </c>
       <c r="S4">
-        <v>0.04416651609280755</v>
+        <v>0.01741629199909689</v>
       </c>
       <c r="T4">
-        <v>0.04416651609280754</v>
+        <v>0.01741629199909689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>112.67503</v>
       </c>
       <c r="I5">
-        <v>0.8563093528905953</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="J5">
-        <v>0.8563093528905952</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.716522666666667</v>
+        <v>4.019613333333333</v>
       </c>
       <c r="N5">
-        <v>14.149568</v>
+        <v>12.05884</v>
       </c>
       <c r="O5">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="P5">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="Q5">
-        <v>177.1447776541156</v>
+        <v>150.9700176405778</v>
       </c>
       <c r="R5">
-        <v>1594.30299888704</v>
+        <v>1358.7301587652</v>
       </c>
       <c r="S5">
-        <v>0.4540251282153105</v>
+        <v>0.401606215022802</v>
       </c>
       <c r="T5">
-        <v>0.4540251282153104</v>
+        <v>0.401606215022802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>112.67503</v>
       </c>
       <c r="I6">
-        <v>0.8563093528905953</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="J6">
-        <v>0.8563093528905952</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.709422</v>
       </c>
       <c r="O6">
-        <v>0.02658340904223816</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="P6">
-        <v>0.02658340904223817</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="Q6">
         <v>8.881571681406665</v>
@@ -818,10 +818,10 @@
         <v>79.93414513265999</v>
       </c>
       <c r="S6">
-        <v>0.02276362179458496</v>
+        <v>0.02362650837675152</v>
       </c>
       <c r="T6">
-        <v>0.02276362179458496</v>
+        <v>0.02362650837675152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>112.67503</v>
       </c>
       <c r="I7">
-        <v>0.8563093528905953</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="J7">
-        <v>0.8563093528905952</v>
+        <v>0.9174921121349238</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.942551666666667</v>
+        <v>4.926946666666667</v>
       </c>
       <c r="N7">
-        <v>11.827655</v>
+        <v>14.78084</v>
       </c>
       <c r="O7">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="P7">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="Q7">
-        <v>148.0757091060722</v>
+        <v>185.0479544916889</v>
       </c>
       <c r="R7">
-        <v>1332.68138195465</v>
+        <v>1665.4315904252</v>
       </c>
       <c r="S7">
-        <v>0.3795206028806998</v>
+        <v>0.4922593887353703</v>
       </c>
       <c r="T7">
-        <v>0.3795206028806997</v>
+        <v>0.4922593887353703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.931542</v>
+        <v>2.048706666666666</v>
       </c>
       <c r="H8">
-        <v>5.794626</v>
+        <v>6.14612</v>
       </c>
       <c r="I8">
-        <v>0.04403808403958729</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="J8">
-        <v>0.04403808403958728</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.716522666666667</v>
+        <v>4.019613333333333</v>
       </c>
       <c r="N8">
-        <v>14.149568</v>
+        <v>12.05884</v>
       </c>
       <c r="O8">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="P8">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="Q8">
-        <v>9.110161624618668</v>
+        <v>8.23500863342222</v>
       </c>
       <c r="R8">
-        <v>81.99145462156801</v>
+        <v>74.11507770079999</v>
       </c>
       <c r="S8">
-        <v>0.02334950177168599</v>
+        <v>0.02190653945489026</v>
       </c>
       <c r="T8">
-        <v>0.02334950177168599</v>
+        <v>0.02190653945489026</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.931542</v>
+        <v>2.048706666666666</v>
       </c>
       <c r="H9">
-        <v>5.794626</v>
+        <v>6.14612</v>
       </c>
       <c r="I9">
-        <v>0.04403808403958729</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="J9">
-        <v>0.04403808403958728</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.709422</v>
       </c>
       <c r="O9">
-        <v>0.02658340904223816</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="P9">
-        <v>0.02658340904223817</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="Q9">
-        <v>0.456759462908</v>
+        <v>0.4844658602933333</v>
       </c>
       <c r="R9">
-        <v>4.110835166172</v>
+        <v>4.36019274264</v>
       </c>
       <c r="S9">
-        <v>0.001170682401460809</v>
+        <v>0.001288762520538224</v>
       </c>
       <c r="T9">
-        <v>0.001170682401460809</v>
+        <v>0.001288762520538224</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.931542</v>
+        <v>2.048706666666666</v>
       </c>
       <c r="H10">
-        <v>5.794626</v>
+        <v>6.14612</v>
       </c>
       <c r="I10">
-        <v>0.04403808403958729</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="J10">
-        <v>0.04403808403958728</v>
+        <v>0.05004672836771996</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.942551666666667</v>
+        <v>4.926946666666667</v>
       </c>
       <c r="N10">
-        <v>11.827655</v>
+        <v>14.78084</v>
       </c>
       <c r="O10">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="P10">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="Q10">
-        <v>7.615204131336667</v>
+        <v>10.09386848231111</v>
       </c>
       <c r="R10">
-        <v>68.53683718203</v>
+        <v>90.84481634080001</v>
       </c>
       <c r="S10">
-        <v>0.01951789986644049</v>
+        <v>0.02685142639229148</v>
       </c>
       <c r="T10">
-        <v>0.01951789986644049</v>
+        <v>0.02685142639229148</v>
       </c>
     </row>
   </sheetData>
